--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,49 +473,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/petercohan/2023/12/31/up-269-in-2023-vertiv-stock-could-outperform-nvidia-shares-in-2024/</t>
+          <t>https://www.reuters.com/world/us/ntsb-says-no-passengers-seated-near-boeing-737-max-9-fuselage-that-failed-2024-01-07/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/i/j/up-269-in-2023-vertiv-stock-could-outperform-nvidia-shares-in-2024-2212304.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/s/9/sgjdzlszsflljp2ruavvxgtzjm-2219299.jpg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 hour ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Forbes</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Up 269% In 2023, Vertiv Stock Could Outperform Nvidia Shares In 2024</t>
+          <t>NTSB says no passengers seated near Boeing 737 MAX 9 fuselage that failed</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Which stock benefited most from 2023's boom in Generative AI? If you thought the winner is Santa Clara, Calif.</t>
+          <t>The head of the U.S. National Transportation Safety Board said no passengers were seated next to a cabin panel that blew out on an Alaska Airlines Boeing 737 MAX 9, forcing an emergency landing Friday...</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['NVDA']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.barrons.com/articles/walgreens-conagra-jobs-data-fed-minutes-and-more-to-watch-this-week-dc66a518</t>
+          <t>https://www.fxempire.com/forecasts/article/gold-prices-forecast-eyes-on-next-weeks-cpi-ppi-reports-1400648</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/f/q/food7-2212298.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/q/n/gold-bars-with-graph-3-2219293.jpg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,187 +525,187 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Barrons</t>
+          <t>FXEmpire</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Walgreens, Conagra, Jobs Data, Fed Minutes, and More to Watch This Week</t>
+          <t>Gold Prices Forecast: Eyes on Next Week's CPI, PPI Reports</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>This week also brings earnings from Constellation Brands and Lamb Weston. Plus, December jobs data, Fed minutes, and manufacturing and services numbers.</t>
+          <t>Gold traders await CPI, PPI impact on U.S. Treasury Yields, U.S. Dollar, and Fed rate cut odds, shaping XAU/USD's trend.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['CAG', 'WBA']</t>
+          <t>['AAAU', 'BAR', 'DBP', 'GLD', 'GLDM', 'IAU', 'OUNZ']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.cnbc.com/2023/12/31/reckitt-benckiser-unit-recalls-possibly-contaminated-baby-formula-powder-fda-says.html</t>
+          <t>https://www.businessinsider.com/tesla-board-members-elon-musk-tweeting-420-drugs-wsj-2024-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/o/y/104255941-gettyimages-94945401-2212288.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/6/5/659a214aec62ab5daf8155f3formatjpeg-2219298.jpg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5 hours ago</t>
+          <t>3 hours ago</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CNBC</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Reckitt Benckiser unit recalls possibly contaminated baby formula powder, FDA says</t>
+          <t>Tesla board members worried Elon Musk was on drugs when he shot off his infamous 'funding secured' tweet, WSJ reports</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>The company said that most, if not all, of the possibly contaminated product has already been consumed.</t>
+          <t>Elon Musk shocked Tesla shareholders in 2018 when he announced he wanted to take the company private.   A new WSJ report revealed that some board members were concerned that he was on drugs when tweet...</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['RBGLY']</t>
+          <t>['TSLA']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://invezz.com/news/2023/12/31/zim-integrated-shipping-stock-braces-for-new-normal-in-2024/?utm_source=snapi</t>
+          <t>https://www.businessinsider.com/tesla-board-director-worried-elon-musk-drug-use-wsj-2024-1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/t/3/zim-stock-has-gained-by-10-over-the-past-month-2212283.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/6/5/659a1c0b6979d737182113c4formatjpeg-2219297.jpg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Invezz</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ZIM Integrated Shipping stock braces for new normal in 2024</t>
+          <t>Elon Musk's drug use was so concerning it prompted a Tesla director to forgo a reelection bid, WSJ reports</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ZIM Integrated (NYSE: ZIM) stock price will be in the spotlight this week as investors focus on the embattled shipping industry. The shares ended the year at $10, about 56% above the lowest level in 2...</t>
+          <t>The Wall Street Journal reported executives across Elon Musk's companies worry about his drug use. A former Tesla director didn't seek reelection to the company's board due to his drug use, per The Jo...</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['ZIM']</t>
+          <t>['TSLA']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/business/healthcare-pharmaceuticals/reckitts-mead-johnson-nutrition-recalls-baby-formula-powder-us-fda-says-2023-12-31/</t>
+          <t>https://www.fxempire.com/forecasts/article/oil-prices-forecast-middle-east-strains-economic-challenges-in-focus-this-week-1400612</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/v/9/personal-products7-2212280.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/z/4/oil-barrel-3-2219289.jpg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>4 hours ago</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>FXEmpire</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Reckitt's Mead Johnson Nutrition recalls baby formula powder from US, FDA says</t>
+          <t>Oil Prices Forecast: Middle East Strains, Economic Challenges in Focus This Week</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Reckitt Benckiser Group's Mead Johnson Nutrition (MJN) is voluntarily recalling select batches of Nutramigen Powder from the U.S. market due to a possibility of contamination with Cronobacter sakazaki...</t>
+          <t>The upcoming week's oil market is poised for volatility amid Middle East tensions and pivotal economic data.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['RBGLY']</t>
+          <t>['BNO', 'DBO', 'GUSH', 'IEO', 'OIH', 'PXJ', 'UCO']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/jamesfarrell/2023/12/31/maersk-pauses-red-sea-sailing-again-after-latest-houthi-attack/</t>
+          <t>https://news.sky.com/story/alaska-airlines-blowout-170-planes-grounded-after-dramatic-mid-air-incident-on-new-aircraft-stuns-aviation-experts-13043399</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/y/j/maersk-pauses-red-sea-sailing-again-after-latest-houthi-attack-2212279.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/w/w/wwysol6x5rkbhlippdifsxfore-2188988-2219296.jpg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6 hours ago</t>
+          <t>5 hours ago</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Forbes</t>
+          <t>Skynews</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maersk Pauses Red Sea Sailing Again After Latest Houthi Attack</t>
+          <t>170 planes grounded after dramatic mid-air blowout on new aircraft stuns aviation experts</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Danish shipping firm AP Moller-Maersk announced it was pausing sailing in the Red Sea for 48 hours after Houthi militants attacked a Maersk ship twice—just days after the company had resumed sailing f...</t>
+          <t>More than 170 Boeing planes have been temporarily grounded after a chunk of fuselage dramatically blew out of a brand-new passenger jet in mid-air.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/business/autos-transportation/chinas-li-auto-expects-launch-first-fully-electric-ev-march-2023-12-31/</t>
+          <t>https://www.reuters.com/business/aerospace-defense/spirit-aero-made-blowout-part-boeing-has-key-role-sources-2024-01-07/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/o/i/r6wl3qyswzjhzk2pi4g55ewfg4-2212270.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/x/u/btmsuup3s5l5dfatdq6epurdii-2219280.jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,1070 +715,1070 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>China's Li Auto expects to launch first fully electric EV in March</t>
+          <t>Spirit Aero made blowout part but Boeing has key role -sources</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>China's Li Auto Inc said on Sunday it expects to launch and begin deliveries of its first fully electric car in March.</t>
+          <t>Aerospace supplier Spirit AeroSystems manufactured and initially installed the fuselage part on a brand-new Boeing 737 Max 9 jet that suffered a blowout on Friday, but Boeing also has a key role in th...</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['LI']</t>
+          <t>['BA', 'SPR']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/brettowens/2023/12/31/will-these-dividends-up-to-19-collapse-under-their-own-weight/</t>
+          <t>https://www.wsj.com/articles/elon-musk-illegal-drugs-e826a9e1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/w/i/will-these-dividends-up-to-19-collapse-under-their-own-weight-2212263.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/w/z/social-2219277.jpg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Forbes</t>
+          <t>WSJ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Will These Dividends Up To 19% Collapse Under Their Own Weight?</t>
+          <t>Elon Musk Has Used Illegal Drugs, Worrying Leaders at Tesla and SpaceX</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>As we return Mariah Carey to the ocean depths for another year, we turn our attention to our next seasonal siren—double-digit dividend stocks.</t>
+          <t>Some executives and board members fear the billionaire's use of drugs—including LSD, cocaine, ecstasy, mushrooms and ketamine—could harm his companies.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['BRY', 'CVI', 'EQNR', 'PBR']</t>
+          <t>['TSLA']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.fxempire.com/forecasts/article/oil-price-forecast-for-2024-oil-will-test-the-90-level-1398954</t>
+          <t>https://www.reuters.com/sustainability/boards-policy-regulation/court-cancels-warren-buffett-jimmy-haslam-trial-over-pilot-2024-01-07/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/s/l/oil-rig-blue-sea-2212231.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/x/7/x7ew56i7ejjh3ha6kcpj2bibbu-2219282.jpg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FXEmpire</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oil Price Forecast For 2024 – Oil Will Test The $90 Level</t>
+          <t>Court cancels Warren Buffett, Jimmy Haslam trial over Pilot</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oil is ready to rebound from recent lows as demand keeps growing while OPEC+ restricts production.</t>
+          <t>An unusual, billion-dollar trial between Warren Buffett's Berkshire Hathaway and the billionaire Haslam family was canceled by the court on Saturday, two days before it was scheduled to start.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['BNO', 'DBO', 'GUSH', 'IEO', 'OIH', 'PXJ', 'UCO']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.barrons.com/articles/buy-gold-price-rally-73fb8b35</t>
+          <t>https://www.reuters.com/business/autos-transportation/toyota-motor-restart-vehicle-plants-japan-monday-2024-01-07/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/b/a/bank49-2212237.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/a/i/7huwx5mgfjobri5pwiut7kvaae-2219279.jpg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16 hours ago</t>
+          <t>6 hours ago</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Barrons</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Investors Shouldn't Ignore Gold's 2023 Rally. Why 2024 Could Bring More Gains.</t>
+          <t>Toyota Motor: to restart vehicle plants in Japan from Monday</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gold's rally has been driven by hopes of lower U.S. interest rates and a weaker dollar.</t>
+          <t>Toyota Motor said it would restart its Japanese vehicle plants on Monday but, given the impact of the New Year's Day earthquake, would decide separately about operations from Jan. 15.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['AAAU', 'GLD', 'GLDM', 'IAU', 'IAUF', 'OUNZ', 'UGL']</t>
+          <t>['TM']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://marijuanastocks.com/3-marijuana-stocks-to-watch-in-january/</t>
+          <t>https://nypost.com/2024/01/06/business/blackrock-plans-to-lay-off-600-employees-about-3-percent-of-global-workforce/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/b/9/top-marijuana-stocks-before-thanksgiving-2212181.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/c/g/wp-content2fuploads2fsites2f22f20242f012fistock-1219303761jpgquality3d9026strip3dall-2219273.jpg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22 hours ago</t>
+          <t>9 hours ago</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MarijuanaStocks</t>
+          <t>New York Post</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3 Marijuana Stocks To Watch In January</t>
+          <t>BlackRock plans to lay off 600 employees – about 3 percent of global workforce</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>What will happen to marijuana stocks in 2024? Some feel that it will be yet another year of volatile trading. For several years now there have been increased levels of volatility that have both helped...</t>
+          <t>Shares of BlackRock rebounded in 2023, up 6 percent after falling 21 percent in 2022.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['CRLBF', 'GTBIF', 'TCNNF']</t>
+          <t>['BLK']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://news.sky.com/story/mickey-mouse-disney-to-lose-copyright-of-early-version-of-cartoon-character-featured-in-steamboat-willie-13039653</t>
+          <t>https://www.reuters.com/business/aerospace-defense/boeings-ongoing-737-max-crisis-2024-01-06/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/p/4/skynews-mickey-mouse-steamboat-willie-6407876jpg20231230173643-2212168.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/h/x/3e37bldovbpf5cdvy42frws4ee-2219272.jpg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Skynews</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Disney to lose copyright of early version of Mickey Mouse</t>
+          <t>Boeing's ongoing 737 MAX crisis</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>An early version of Mickey Mouse, one of the most iconic characters in popular culture, will no longer have copyright protection from 2024.</t>
+          <t>The latest black eye for Boeing's top-selling 737 MAX aircraft occurred Friday when a cabin panel blowout forced an Alaska Airlines flight to make an emergency landing.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['DIS']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://nypost.com/2023/12/30/business/toyota-subsidiary-shuts-down-production-after-decades-of-safety-test-irregularities/</t>
+          <t>https://www.wsj.com/articles/boeing-is-back-in-the-spotlightthis-time-over-a-max-9-c6bd8882</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/z/x/picture-shows-daihatsu-motor-sales-74030269-e1703967761370jpgquality90stripall-2212165.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/x/i/social-2219278.jpg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>10 hours ago</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>New York Post</t>
+          <t>WSJ</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Toyota subsidiary shuts down production after admitting to decades of fraudulent safety test results</t>
+          <t>Boeing Is Back in the Spotlight---This Time Over a MAX 9</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A Japanese car manufacturer has temporarily shut down production after admitting to decades of fraudulent safety test results.</t>
+          <t>The aircraft maker's executives race to reassure airlines after latest incident, as FAA grounds 171 MAX 9 jets</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['TM']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/model-portfolio-channel/youre-thinking-building-cybersecurity-strategy/</t>
+          <t>https://www.businessinsider.com/faa-grounds-boeing-737-max-9-planes-after-alaska-airlines-incident-2024-1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/s/o/so-youre-thinking-about-building-a-cybersecurity-strategy-440x250-2212174.png</t>
+          <t>https://cdn.snapi.dev/images/v1/6/5/6599a6211c5c7b8c9a0e9d5dformatjpeg-2219281.jpg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>So, You're Thinking About Building a Cybersecurity Strategy?</t>
+          <t>FAA orders grounding of some Boeing 737 planes after an Alaska Airlines flight lost part of its fuselage in air</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>By Christopher Gannatti, CFA, Global Head of Research   One of the biggest themes across megatrend investing—at least, in our opinion—is cybersecurity. Every time a new technology is introduced, it si...</t>
+          <t>The FAA announced it's grounding some Boeing 737 planes for inspection. The announcement follows an Alaska Airlines flight losing part of its fuselage in air.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['WCBR']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://deadline.com/2023/12/comcast-paramount-reach-carriage-renewal-averting-blackout-1235683726/</t>
+          <t>https://www.foxbusiness.com/economy/blackrock-layoffs-coming-firm-matures-esg-pullback-bitcoin-etf-approval</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/x/f/xfinity-truck-2212172.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/i/z/blackrock-cryptocurrency-illustration-2219262.jpg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deadline</t>
+          <t>Fox Business</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Comcast And Paramount Reach Carriage Renewal, Averting Blackout</t>
+          <t>BlackRock layoffs coming as firm matures, ESG pullback and Bitcoin ETF approval</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Top U.S. cable operator Comcast has reached a carriage renewal with Paramount Global, averting a potential blackout of service around the New Year's holiday. The deal, confirmed to Deadline by a Param...</t>
+          <t>Money management firm BlackRock plans to announce layoffs of about 3 percent of its global workforce in the coming days, totaling about 600 employees.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['CMCSA', 'PARA', 'PARAA']</t>
+          <t>['BLK']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.foxbusiness.com/industrials/toyota-subsidiary-shuts-down-production-after-admitting-to-decades-of-safety-test-irregularities</t>
+          <t>https://www.forbes.com/sites/jamesfarrell/2024/01/06/faa-grounds-171-boeing-planes-after-alaska-airlines-incident-blows-hole-into-plane-mid-flight/</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/k/v/braking-2212157.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/f/i/faa-grounds-171-boeing-planes-after-alaska-airlines-incident-blows-hole-into-plane-mid-flight-2219261.jpg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fox Business</t>
+          <t>Forbes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Toyota subsidiary shuts down production after admitting to decades of safety test 'irregularities'</t>
+          <t>FAA Grounds 171 Boeing Planes After Alaska Airlines Incident Blows Hole Into Plane Mid-Flight</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Toyota bought a majority share in Daihatsu in 1967 and expanded that to a controlling interest in 1998 after the company failed to make an impact in the North American market.</t>
+          <t>The Federal Aviation Administration is temporarily grounding some Boeing 737 MAX 9 planes after part of the fuselage of one of the planes apparently blew open during an Alaska Airlines flight from Por...</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['TM']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/pamdanziger/2023/12/30/coupang-will-soon-discover-farfetchs-luxury-marketplace-is-a-loser/</t>
+          <t>https://www.marketwatch.com/story/federal-officials-order-grounding-of-boeing-737-9-max-jetliners-after-a-plane-suffers-a-window-blowout-94341ece</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/t/t/coupang-will-soon-discover-farfetchs-luxury-marketplace-is-a-loser-2212136.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/i/m/im-66612598size1777777777777778width800-2219285.jpg</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Forbes</t>
+          <t>Market Watch</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Coupang Will Soon Discover Farfetch's Luxury Marketplace Is A Loser</t>
+          <t>Federal officials order grounding of Boeing 737-9 Max jetliners after a plane suffers a window blowout</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Farfetch Holdings, the online luxury marketplace and technology platform, reached the precipice of insolvency in the third quarter. A last-minute $500 million bridge loan from the $21 billion South Ko...</t>
+          <t>U.S. federal officials on Saturday ordered the immediate grounding of Boeing 737-9 Max jetliners after an Alaska Airlines plane suffered a blowout that left a gaping hole in the side of the fuselage.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['CPNG']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/model-portfolio-channel/concerned-about-valuations-us-equity-market/</t>
+          <t>https://www.reuters.com/business/aerospace-defense/faa-requiring-inspections-before-some-boeing-737-max-9-flights-can-resume-2024-01-06/</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/c/o/concerned-about-valuations-in-the-us-equity-market-440x250-2212129.png</t>
+          <t>https://cdn.snapi.dev/images/v1/z/q/sgjdzlszsflljp2ruavvxgtzjm-2219264.jpg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Concerned About Valuations in the US Equity Market?</t>
+          <t>FAA requiring inspections before some Boeing 737 MAX 9 flights can resume</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>By Alejandro Saltiel, CFA, Head of Indexes, U.S.   The current valuation of the S&amp;P 500 Index is at 20 times forward earnings. The below chart, taken from WisdomTree's Daily Market Snapshot, shows thi...</t>
+          <t>The Federal Aviation Administration said on Saturday it will order the temporary grounding of certain Boeing 737 MAX 9 airplanes after an Alaska Airlines flight on Friday was forced to perform an emer...</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['EES', 'EPS', 'EZM']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/tactical-allocation-channel/green-infrastructure-waste-management/</t>
+          <t>https://www.cnn.com/business/live-news/alaska-airlines-boeing-01-06-24/index.html</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/g/r/green-infrastructure-waste-management-440x250-2212127.png</t>
+          <t>https://cdn.snapi.dev/images/v1/p/m/240106091944-flight-1282-alaska-airlines-oregon-01-05-2024-super-169-2219259.jpg</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>13 hours ago</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>CNN Business</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Green Infrastructure: Waste Management</t>
+          <t>FAA grounds certain Boeing jets after Alaska Airlines emergency landing</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>By Kendall Harrow, Content Strategy Analyst The investment opportunity for the waste management industry is growing as the population increases and companies utilize advanced technologies. Green infra...</t>
+          <t>The FAA has temporarily grounded certain Boeing 737-9 Max aircraft after a section of an Alaska Airlines plane blew out of the aircraft mid-flight on Friday, officials said. Follow for live updates.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['RNEW']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.cnbc.com/2023/12/30/disney-star-wars-2023-top-film-franchise.html</t>
+          <t>https://www.marketwatch.com/story/boeing-faces-new-questions-about-the-737-max-after-a-plane-suffers-a-gaping-hole-in-its-side-d1e2f4f7</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/z/6/107352534-1703829022452-gettyimages-607402182-15-2212081.jpeg</t>
+          <t>https://cdn.snapi.dev/images/v1/i/m/im-51321939size1777777777777778width800-2219258.jpg</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>14 hours ago</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CNBC</t>
+          <t>Market Watch</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>How Disney made Star Wars the top film franchise of 2023 without a theatrical release</t>
+          <t>Boeing faces new questions about the 737 Max after a plane suffers a gaping hole in its side</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Star Wars' No.1 ranking suggests that Disney's revitalization of the brand is working.</t>
+          <t>The emergency landing of a Boeing 737 Max jetliner with a gaping hole in its side and the airline's decision to ground identical planes is renewing questions about the safety of Boeing's best-selling ...</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['DIS']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/sustainability/sustainable-finance-reporting/swiss-financial-watchdog-wants-examine-clawing-back-bankers-bonuses-2023-12-30/</t>
+          <t>https://www.cnbc.com/2024/01/06/boeing-737-max-9-grounding-after-alaska-airlines-door-blows-midflight.html</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/k/x/kxeosfoo7npxppxy3cpsjkk5v4-2212123.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/m/p/106960269-1634208953308-gettyimages-1135611967-b76i0062-2019031325849106-2219243.jpeg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Swiss financial watchdog wants to examine clawing back bankers' bonuses</t>
+          <t>United Airlines to ground Boeing 737 Max 9 planes after panel blew off Alaska Air flight</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Switzerland's financial regulator wants to discuss the ability to claw back bonuses from bankers as part of stronger powers following the fall of Credit Suisse and sale to UBS.</t>
+          <t>United is preparing to ground dozens of its Boeing 737 Max 9 aircraft for inspections, a day after a panel blew out of an Alaska Airlines flight.</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['UBS']</t>
+          <t>['ALK', 'BA', 'UAL']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/world/europe/climate-activists-block-amsterdam-highway-protest-against-ing-2023-12-30/</t>
+          <t>https://invezz.com/news/2024/01/06/booking-bkng-vs-airbnb-abnb-which-is-the-better-travel-stock/?utm_source=snapi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/i/n/ing-bank-2074235-2212184.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/l/d/airbnb-2219240.jpeg</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Invezz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Climate activists block Amsterdam highway in protest against ING</t>
+          <t>Booking (BKNG) vs Airbnb (ABNB): Which is the better travel stock?</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dutch climate activists on Saturday blocked a major highway in Amsterdam to demand an immediate end to the financing of fossil fuel projects by lender ING.</t>
+          <t>Airbnb (NASDAQ: ABNB) and Booking Holdings (NASDAQ: BKNG) are some of  biggest travel companies in the world with a market cap of $87 billion and $118 billion, respectively. The two firms have done qu...</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['ING']</t>
+          <t>['ABNB', 'BKNG']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.cnbc.com/2023/12/30/ancora-picks-up-a-stake-in-elanco-how-the-investor-may-push-to-help-improve-margins.html</t>
+          <t>https://www.geekwire.com/2024/nanostring-technologies-to-cut-9-of-workforce-gets-delisting-warning-from-nasdaq/</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/d/z/106896186-1623450929850-gettyimages-1201868158-adogsday24-2212068.jpeg</t>
+          <t>https://cdn.snapi.dev/images/v1/b/i/biotech5-2219252.jpg</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>15 hours ago</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CNBC</t>
+          <t>GeekWire</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ancora picks up a stake in Elanco. How the investor may push to help improve margins</t>
+          <t>NanoString Technologies to cut 9% of workforce, gets delisting notice from Nasdaq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A refreshment of the board may be on the horizon at the animal health company.</t>
+          <t>Seattle-based publicly traded biotech company NanoString Technologies said in a filing Friday that it plans to cut about 50 positions, or 9% of its workforce.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['ELAN']</t>
+          <t>['NSTG']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/xiaomi-su7-ev-photos-specs-features-tesla-rival-2023-12</t>
+          <t>https://www.reuters.com/business/aerospace-defense/indian-regulator-orders-aircraft-inspections-following-alaska-airlines-incident-2024-01-06/</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/6/5/658dc220ec62ab5daf7f4ec6formatjpeg-2212113.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/e/u/3e37bldovbpf5cdvy42frws4ee-2219239.jpg</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>See the new Chinese EV that wants to take on Tesla and Porsche</t>
+          <t>Indian regulator orders aircraft inspections following Alaska Airlines incident, ANI reports</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>A new Tesla rival debuted in Beijing this week. Chinese smartphone maker Xiaomi designed the SU7 to challenge Tesla and Porsche.</t>
+          <t>India's aviation regulator on Saturday ordered an inspection of all Boeing 737-8 Max aircraft owned by domestic operators after a cabin panel blowout forced a new Alaska Airlines airplane to make an e...</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['XIACF']</t>
+          <t>['ALK']</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://techxplore.com/news/2023-12-boeing-airlines-max-jets-potential.html</t>
+          <t>https://www.forbes.com/sites/jamesfarrell/2024/01/06/alaska-airlines-grounds-fleet-of-boeing-737-9-planes-after-fuselage-appears-to-blow-open-mid-flight/</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/a/s/boeing-asks-airlines-t-2212061.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/3/r/alaska-airlines-grounds-fleet-of-boeing-737-9-planes-after-fuselage-appears-to-blow-open-mid-flight-2219188.jpg</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TechXplore</t>
+          <t>Forbes</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Boeing asks airlines to inspect 737 Max jets for potential loose bolt</t>
+          <t>Alaska Airlines Grounds Fleet Of Boeing 737-9 Planes After Fuselage Appears To Blow Open Mid-Flight</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Boeing is asking airlines to inspect its 737 Max jets for a potential loose bolt in the rudder control system, the airplane maker and Federal Aviation Administration confirmed this week.</t>
+          <t>Alaska Airlines announced late Friday night that it is temporarily grounding its fleet of 65 Boeing 737-9 aircraft, after part of the fuselage of one of the planes reportedly blew open during a flight...</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['BA']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/world/mcdonalds-malaysia-sues-israel-boycott-movement-1-mln-damages-2023-12-30/</t>
+          <t>https://www.etftrends.com/model-portfolio-channel/loved-bill-gates-annual-letter/</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/n/u/5succoyfcbplpivtmetbyjbnne-2212033.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/w/h/why-we-loved-bill-gatess-annual-letter-440x250-2219251.png</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>ETF Trends</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>McDonald's Malaysia sues Israel boycott movement for $1 mln in damages</t>
+          <t>Why We Loved Bill Gates's Annual Letter</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>McDonald's Malaysia has sued a movement promoting boycotts against Israel for "false and defamatory statements" that it says hurt its business, seeking damages amounting to 6 million ringgit ($1.31 mi...</t>
+          <t>By Christopher Gannatti, CFA, Global Head of Research We have been writing a lot about artificial intelligence (AI) and the ways in which we believe that topic will continue to evolve as the calendar ...</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['MCD']</t>
+          <t>['WDNA']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.businessinsider.com/google-settles-5-billion-privacy-lawsuit-incognito-chrome-users-2023-12</t>
+          <t>https://www.etftrends.com/model-portfolio-channel/shareholder-yield-shines-among-value-factors/</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/6/5/658f9a551c5c7b8c9a0d0e02formatjpeg-2212108.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/s/h/shareholder-yield-shines-among-value-factors-440x250-2219249.png</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Business Insider</t>
+          <t>ETF Trends</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Google settles $5B privacy lawsuit alleging it spied on 'incognito' Chrome users</t>
+          <t>Shareholder Yield Shines among Value Factors</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Google has agreed to settle a 2020 class action lawsuit seeking $5B for Chrome browser users. The lawsuit claimed Google tracked users' activity in "incognito" privacy mode.</t>
+          <t>By Matt Wagner, CFA, Associate Director, Research   WisdomTree pioneered fundamental weighting as a novel approach to rules-based value investing. Instead of using market capitalization, a company's w...</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['GOOG', 'GOOGL']</t>
+          <t>['WTV']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://nypost.com/2023/12/29/news/florida-woman-sues-hershey-for-5m-over-misleading-reeses-packaging/</t>
+          <t>https://www.etftrends.com/tactical-allocation-channel/time-chill-tbills/</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/n/l/miami-beach-florida-veterans-day-74220218jpgquality90stripall-2212008.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/t/i/time-to-chill-on-tbills-440x250-2219250.jpg</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>16 hours ago</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>New York Post</t>
+          <t>ETF Trends</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Florida woman sues Hershey for $5M over ‘misleading' Reese's packaging that ‘trick' customers</t>
+          <t>Time to Chill on Tbills?</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cynthia Kelly, of Tampa, is suing The Hershey Company for $5 million for "tricking" customers with "misleading" packaging on Reese's that shows eyes and nose cutouts not seen on the actual candy.</t>
+          <t>By Patrick Schramm, ETF Strategist Discover why savvy investors are starting to cool on Tbills and where they're turning next for greater returns in a market poised for change. 2023 was quite a year f...</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['HSY']</t>
+          <t>['ANGL', 'ITM', 'MBBB', 'MLN']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/fixed-income-channel/treasury-yields-snapshot-december-29-2023/</t>
+          <t>https://news.sky.com/story/could-boeing-737-max-be-grounded-again-after-mid-air-window-blowout-13043080</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/k/r/etf14-2212007.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/g/j/skynews-alaska-airlines-plane-emergency-6413389jpg20240106082354-2219169.jpg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>17 hours ago</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>Skynews</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Treasury Yields Snapshot: December 29, 2023</t>
+          <t>Could Boeing 737 MAX be grounded again after mid-air window blowout?</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>The yield on the 10-year note ended December 29, 2023 at 3.88%, the 2-year note ended at 4.23%, and the 30-year at 4.03%. Here is a table showing the yields' highs and lows and the FFR since 2007.</t>
+          <t>Dramatic footage shows the moments after a window and chunk of fuselage blew out of a passenger plane in mid-air, leaving a gaping hole in the side of the Boeing 737-9 MAX.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['IEF', 'SHY', 'TLT']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://deadline.com/2023/12/google-agrees-to-settle-incognito-mode-class-action-lawsuit-1235683347/</t>
+          <t>https://www.cnbc.com/2024/01/06/alaska-airlines-grounds-boeing-737-max-9-fleet-after-section-blows-out-midair.html</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/g/e/gettyimages-1246480435-2212013.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/t/e/107343170-1701782001311-gettyimages-1831200109-mt1-8655-wfp1p6ig-2219138.jpeg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Deadline</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Google Agrees To Settle Incognito Mode Lawsuit</t>
+          <t>Alaska Airlines grounds Boeing 737 Max 9 fleet after section blows out midair</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A consumer privacy lawsuit seeking at least $5 billion in damages over allegations Google tracked users who thought they were browsing the internet privately has been settled. No terms have been discl...</t>
+          <t>Alaska Airlines will temporarily ground its fleet of 65 Boeing 737 Max 9 aircraft after a cabin panel blowout forced a jetliner to make an emergency landing.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['GOOG', 'GOOGL']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://news.sky.com/story/florida-woman-wants-hershey-to-pay-5m-over-misleading-halloween-sweets-13039419</t>
+          <t>https://www.marketbeat.com/originals/are-defensive-sectors-ready-to-outshine-growth-in-2024/?utm_source=snapi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/g/k/skynews-hershey-florida-6407278jpg20231230014424-2212002.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/w/o/med-20240105132256-are-defensive-sectors-ready-to-outshine-growth-in-2219125.jpg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>19 hours ago</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Skynews</t>
+          <t>MarketBeat</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Choc horror: Hershey hit with $5m lawsuit over 'misleading' Halloween sweets</t>
+          <t>Are defensive sectors ready to outshine growth in 2024?</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Chocolate giant Hershey is being sued by a disgruntled customer who said its Halloween-themed peanut butter treats didn't match the packaging.</t>
+          <t>The Health Care Select Sector SPDR Fund NYSEARCA: XLV, which has both growth and defensive characteristics, was the leader in the first week of the year. Top sector performers included Moderna Inc. NA...</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['HSY']</t>
+          <t>['XLE', 'XLK', 'XLP', 'XLU', 'XLV']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.wsj.com/articles/hermes-shines-in-a-scruffy-luxury-market-e12981bf</t>
+          <t>https://www.marketwatch.com/story/apples-stock-has-started-2024-on-a-sour-note-not-seen-in-42-years-19b8667e</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/s/o/social-2212012.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/9/b/im-713317size1777777777777778width800-2219121.jpg</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WSJ</t>
+          <t>Market Watch</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hermès Shines in a Scruffy Luxury Market</t>
+          <t>Apple's stock has started 2024 on a sour note not seen in 42 years</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Demand for the French brand's products is booming, thanks in part to an unusual strategy, as rivals struggle.</t>
+          <t>The stock ended the week with its fourth session in a row of declines. That made for the first time that Apple shares AAPL, -0.40% closed lower in each of the first four trading sessions of a year sin...</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['AAPL']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/business/healthcare-pharmaceuticals/mimedx-reports-us-fda-warning-letter-axiofill-shares-drop-2023-12-30/</t>
+          <t>https://techcrunch.com/2024/01/06/vinfast-india/</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/m/l/urlhttps3a2f2fgfoolcdncom2feditorial2fimages2f6429122fgettyimages-1325014006jpgw700opresize-1004888-2211948.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/v/i/vinfast-v6-2219153.jpg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>TechCrunch</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MiMedx reports US FDA warning letter for Axiofill, shares drop</t>
+          <t>Vietnam EV maker VinFast plans $2 billion investment in India</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MiMedx Group said on Friday it had received a warning letter from the U.S. Food and Drug Administration related to the classification of its placental-derived tissue product Axiofill, and its shares f...</t>
+          <t>VinFast, Vietnam's electric vehicle manufacturer, plans to initially invest $500 million to set up an integrated facility in India and break into the world's third-largest automobile market.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['MDXG']</t>
+          <t>['VFS']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/business/finance/blackrock-vaneck-among-asset-managers-that-submitted-updated-filings-spot-2023-12-30/</t>
+          <t>https://www.forbes.com/sites/michaelfoster/2024/01/06/these-8-dividends-are-the-key-to-sailing-through-a-recession-in-2024/</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/p/j/5rxw4uga6jkp7d4w3crhivmtca-2211949.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/3/3/these-8-dividends-are-the-key-to-sailing-through-a-recession-in-2024-2219115.jpg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Forbes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BlackRock, VanEck among asset managers that submitted updated filings for spot bitcoin ETF</t>
+          <t>These 8%+ Dividends Are The Key To Sailing Through A Recession In 2024</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Asset management firms hoping to be among the first to win regulatory approval to launch exchange traded funds (ETFs) tied to the spot price of bitcoin updated their filings with the Securities and Ex...</t>
+          <t>Today I want to go over what the economic data is telling us about the future of the financial markets in 2024.</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['BLK']</t>
+          <t>['BSTZ', 'EOS', 'GBAB', 'SPXX']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.foxbusiness.com/markets/judge-certifies-johnson-johnson-shareholder-class-action-talc-disclosures</t>
+          <t>https://www.marketwatch.com/story/boeing-still-hasnt-fixed-this-problem-on-max-jets-so-its-asking-for-an-exemption-to-safety-rules-5ec05fb8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/z/b/jj-baby-power-a-2211922.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/i/m/im-82986038size1777777777777778width800-2219257.jpg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Fox Business</t>
+          <t>Market Watch</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Judge certifies Johnson &amp; Johnson shareholder class action over talc disclosures</t>
+          <t>Boeing still hasn't fixed this problem on Max jets, so it's asking for an exemption to safety rules</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>A federal judge said Johnson &amp; Johnson shareholders may pursue as a class action their lawsuit accusing the company of concealing how its talc products were contaminated by asbestos.</t>
+          <t>Boeing is asking U.S. federal regulators to exempt a new model of its 737 Max airliner from a safety standard designed to prevent part of the engine housing from overheating and breaking off during fl...</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['JNJ']</t>
+          <t>['BA']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/markets/deals/roche-buy-part-lumiradx-diagnostics-platform-295-million-2023-12-29/</t>
+          <t>https://www.reuters.com/business/energy/bp-investors-want-oil-behemoth-target-bae-chief-ceo-sky-news-2024-01-06/</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/s/z/u465454ihvnyleih43mj6z675q-2211921.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/z/8/vpedlm75jvlttc5ph5dnnrswr4-2219108.jpg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>20 hours ago</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1788,34 +1788,34 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Roche to buy part of LumiraDx diagnostics platform for $295 million</t>
+          <t>BP investors want oil behemoth to target BAE chief as CEO- Sky News</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Swiss drugmaker Roche said on Friday it has agreed to buy LumiraDx's Point of Care diagnostics platform business for about $295 million.</t>
+          <t>Some of BP's largest shareholders have urged the company to approach Charles Woodburn, the BAE Systems chief executive, about becoming the company's next boss, Sky news reported on Saturday.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['LMDX', 'RHHBY']</t>
+          <t>['BP']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/markets/deals/egg-producer-cal-maine-buy-tysons-chicken-plant-missouri-2023-12-29/</t>
+          <t>https://www.reuters.com/science/vulcan-rockets-space-debut-will-be-crucial-boeing-lockheed-venture-sale-talks-2024-01-06/</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/q/1/bk6outayzfmrlfrlr3g7atbzaq-2211912.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/n/h/gposjejamjljxhlo5yfnrgha7e-2219104.jpg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1825,177 +1825,177 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Egg producer Cal-Maine to buy Tyson's chicken plant in Missouri</t>
+          <t>Vulcan rocket's space debut will be crucial for Boeing-Lockheed venture as sale talks loom</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Egg producer Cal-Maine Foods said on Friday it had agreed to acquire a recently shut chicken broiler processing plant, hatchery and feed mill in Dexter, Missouri from Tyson Foods.</t>
+          <t>A lot is riding on the first launch of the new Vulcan rocket by the United Launch Alliance, a joint venture of Boeing and Lockheed Martin.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['CALM', 'TSN']</t>
+          <t>['BA', 'LMT']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/active-etf-channel/dont-forget-concentration-risk-entering-2024/</t>
+          <t>https://www.reuters.com/business/autos-transportation/vietnams-vinfast-set-up-500-mln-ev-facilities-india-2024-01-06/</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/t/y/etf13-2211902.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/g/k/gdcn3miwmfo4tcommc4ljtbuoi-2219101.jpg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>21 hours ago</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Don't Forget Concentration Risk Entering 2024</t>
+          <t>Vietnam's VinFast to set up $500 mln EV facilities in India</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Among the many potential risks facing markets in 2024, concentration risk specifically remains a big one left over from this year. The so-called “Magnificent Seven” firms have definitely lifted the ov...</t>
+          <t>Vietnamese electric vehicle (EV) maker VinFast signed an agreement on Saturday to set up its first manufacturing facilities in India, as the ambitious company seeks to penetrate the world's third-larg...</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['TCAF']</t>
+          <t>['VFS']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/innovative-etfs-channel/moving-averages-sp-finishes-december-up-4-4/</t>
+          <t>https://invezz.com/news/2024/01/06/what-really-happened-to-dozy-mmobuosi-tingo-group-stock/?utm_source=snapi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/t/k/etf12-2211901.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/j/b/people-walk-streets-nigeria-lagos-2219085.jpg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>Invezz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Moving Averages: S&amp;P Finishes December Up 4.4%</t>
+          <t>What really happened to Dozy Mmobuosi Tingo Group stock?</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>The S&amp;P 500 closed December with a monthly gain of 4.42%, after a gain of 8.92% in November. After close on the last day of the month, one of five Ivy portfolio ETFs — Invesco DB Commodity Index Track...</t>
+          <t>Tingo Group (NASDAQ: TIO) stock price has been frozen in the past two months as woes in the company have intensified. After peaking at $5.69 in May 2023, the shares had crashed to $0.69, erasing over ...</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['DBC', 'IEF', 'SPY', 'VEU', 'VNQ', 'VTI']</t>
+          <t>['TIO']</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.etftrends.com/innovative-etfs-channel/sp-500-snapshot-index-finishes-2023-up-24-7/</t>
+          <t>https://news.sky.com/story/alaska-airlines-grounds-boeing-737-9-aircraft-after-mid-flight-window-blowout-13042962</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/u/f/etf11-2211900.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/g/k/skynews-alaska-airlines-plane-emergency-6413389jpg20240106082354-2219084.jpg</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ETF Trends</t>
+          <t>Skynews</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>S&amp;P 500 Snapshot: Index Finishes 2023 Up 24.7%</t>
+          <t>Airline grounds Boeing 737-9 aircraft after mid-flight window blowout</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>The S&amp;P 500 finished up 0.3% from last Friday, leading to the index's ninth consecutive week of gains. The index now sits just 0.56% below its record close from January 3, 2022 and ended the year up 2...</t>
+          <t>Alaska Airlines has grounded all Boeing 737-9 passenger planes hours after a window and chunk of fuselage blew out of a flight in mid-air shortly after take-off in the US state of Oregon.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['IEF', 'IVV', 'RSP', 'SHY', 'SPLG', 'SPY', 'TLT']</t>
+          <t>['BA', 'ALK']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.reuters.com/legal/hershey-is-sued-over-lack-artistic-detail-reeses-candies-2023-12-29/</t>
+          <t>https://www.marketwatch.com/story/alaska-airlines-grounds-all-boeing-737-9-max-planes-after-flight-suffers-midair-window-blowout-7f7a7085</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/n/2/ftp4ai7n6villezko3zgqpg6zi-2211886.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/i/m/im-95920530size1777777777777778width800-2219255.jpg</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>23 hours ago</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>Market Watch</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Hershey is sued over lack of artistic detail on Reese's candies</t>
+          <t>Alaska Airlines grounds all Boeing 737-9 Max planes after flight suffers midair window blowout</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Hershey has been sued by a Florida woman who said its holiday-themed Reese's peanut butter candies lack the artistic details shown on the packaging that make them worth buying.</t>
+          <t>Alaska Airlines grounded all of its Boeing 737-9 aircraft late Friday, hours after a window and piece of fuselage on one such plane blew out in midair and forced an emergency landing in Portland, Oreg...</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['HSY']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.cnet.com/news/privacy/google-settles-5-billion-consumer-privacy-suit-over-chromes-incognito-mode/</t>
+          <t>https://www.businessinsider.com/alaska-airlines-flight-window-portland-oregon-california-2024-1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/g/e/gettyimages-1884464457jpgautowebpfitcropheight675width1200-2211883.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/6/5/6598d82cec62ab5daf814dabformatjpeg-2219143.jpg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2005,34 +2005,34 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CNET</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Google Settles $5 Billion Consumer Privacy Suit Over Chrome's Incognito Mode</t>
+          <t>Alaska Airlines plane loses part of its fuselage, forcing an emergency landing</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>The company is accused of secretly tracking Chrome users while they were in the incognito browsing mode.</t>
+          <t>An Alaska Airlines flight had to make an emergency landing after takeoff because a window blew out. The flight took off from Portland, Oregon, and was scheduled to land in California.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['GOOG', 'GOOGL']</t>
+          <t>['ALK']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.barrons.com/articles/carson-black-blackstone-stock-short-f6f5e8fa</t>
+          <t>https://www.reuters.com/business/autos-transportation/gm-robotaxi-unit-cruise-offers-75000-resolve-california-agency-probe-2024-01-06/</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/6/7/asset-management17-2211880.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/6/n/3ewcd3wwgvpzxala4eoaowbpri-2219069.jpg</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2042,34 +2042,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Barrons</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>‘Wanna -Bet?' Carson Block Offers Side-Bet on His Blackstone Mortgage Short</t>
+          <t>GM robotaxi unit Cruise offers $75,000 to resolve California agency probe</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Renown short seller Carson Block, CEO of Muddy Waters Capital, clapped back at a critic of his short on REIT Blackstone Mortgage.</t>
+          <t>General Motors Cruise robotaxi unit offered late on Friday to pay $75,000 to resolve an investigation by the California Public Utilities Commission over its failure to disclose details of an Oct. 2 pe...</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['BX']</t>
+          <t>['GM']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.investopedia.com/s-and-p-500-gains-and-losses-today-uber-gets-a-downgrade-8420914</t>
+          <t>https://www.reuters.com/business/aerospace-defense/us-safety-board-investigating-alaska-airlines-boeing-737-max-9-emergency-landing-2024-01-06/</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/g/s/ewxr5ycwf5nw7jdpq3grff3bdq-1665394-2211875.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/j/d/shuriuze2fianhxsmvhma7xymy-2219059.jpg</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2079,96 +2079,207 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Investopedia</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>S&amp;P 500 Gains and Losses Today: Uber Gets a Downgrade</t>
+          <t>U.S. safety board investigating Alaska Airlines Boeing 737 MAX 9 emergency landing</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>U.S. equities ended the last trading day of 2023 on a down note, with the S&amp;P 500 falling 0.3% and missing a chance to set an all-time high.</t>
+          <t>The National Transportation Safety Board said late Friday it was investigating after an Alaska Airlines Boeing 737 MAX 9 made an emergency landing shortly after taking off from Portland.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['UBER']</t>
+          <t>['ALK', 'BA']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.forbes.com/sites/gauravsharma/2023/12/29/oil-ends-2023-trading-down-11-and-lacking-very-many-upsides-for-2024/</t>
+          <t>https://www.cnbc.com/2024/01/06/vietnam-ev-maker-vinfast-names-founder-as-ceo-replaces-cfo.html</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/o/i/oil-ends-2023-trading-down-11-and-lacking-very-many-upsides-for-2024-2211864.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/3/r/3rfewq-2219041.jpg</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Forbes</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oil Ends 2023 Trading Down 11% And Lacking Very Many Upsides For 2024</t>
+          <t>Vietnam EV maker VinFast names founder as CEO, replaces CFO</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>In the end nothing seems to have impressed the oil market bulls as crude trading in 2023 reached its conclusion in London on Friday (December 29, 2023) with oil benchmarks down by 11% on annualized ba...</t>
+          <t>Vietnamese electric vehicle maker VinFast on Saturday named its founder and biggest financial backer Pham Nhat Vuong as chief executive as it plans an ambitious overseas expansion and ramps up sales v...</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['BNO', 'DBO', 'GUSH', 'IEO', 'OIH', 'PXJ', 'UCO']</t>
+          <t>['VFS']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.marketwatch.com/story/uber-and-lyft-shares-rallied-this-year-there-may-not-be-much-left-to-drive-them-higher-analysts-say-df492ec9</t>
+          <t>https://www.reuters.com/business/autos-transportation/uaw-reaches-agreement-with-auto-parts-maker-allison-transmission-2024-01-06/</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://cdn.snapi.dev/images/v1/q/h/im-290107size1777777777777778width800-2211816.jpg</t>
+          <t>https://cdn.snapi.dev/images/v1/c/t/zrtjbfx3tnjudbk2hfkhiwqyki-2219029.jpg</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Reuters</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UAW reaches agreement with auto parts maker Allison Transmission</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>The United Auto Workers (UAW) union has reached an agreement with auto parts maker Allison Transmission Holdings Inc over a tentative labor deal covering 1,500 workers in Indianapolis, the labor group...</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['ALSN']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/arena-group-shares-tumble-after-interim-ceo-of-sports-illustrated-parent-company-steps-down-6e9966bb</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://cdn.snapi.dev/images/v1/g/x/im-28570136size1777777777777778width800-2219025.jpg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Market Watch</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Uber and Lyft shares rallied this year. There may not be much left to drive them higher, analysts say</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Shares of Uber Technologies Inc. and the ride-hailing giant's smaller rival, Lyft Inc., have sprinted higher this year. But analysts on Friday suggested there might not be much left in the tank for ei...</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>['LYFT', 'UBER']</t>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Arena Group shares tumble after interim CEO of Sports Illustrated parent company steps down</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Arena Group Holdings Inc., the media company that runs Sports Illustrated and TheStreet, said Friday that interim Chief Executive Manoj Bhargava had resigned to steer clear of potential conflicts, and...</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['AREN']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/amcs-stock-extends-losing-streak-to-five-days-hits-another-record-low-close-6db8566e</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://cdn.snapi.dev/images/v1/5/8/im-292815size1777777777777778width800-2219020.jpg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Market Watch</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AMC's stock extends losing streak to five days, hits another record-low close</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>AMC Entertainment Holdings Inc. extended its losing streak to five days Friday, with the stock ending the session down 2.5% to $5.15.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['AMC']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.marketwatch.com/story/boeing-and-lockheeds-ula-set-to-launch-first-vulcan-rocket-sending-private-lander-to-the-moon-1b7d0ccf</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://cdn.snapi.dev/images/v1/n/6/im-64353895size1777777777777778width800-2219017.jpg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Market Watch</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Boeing and Lockheed's ULA set to launch first Vulcan rocket, sending private lander to the moon</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SpaceX rival United Launch Alliance is making final preparations ahead of the debut launch of its new Vulcan rocket.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['BA', 'LMT']</t>
         </is>
       </c>
     </row>
